--- a/data/strategies/国君场外策略结果.xlsx
+++ b/data/strategies/国君场外策略结果.xlsx
@@ -18,14 +18,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="179">
+  <si>
+    <t>汇添富中证主要消费ETF联接</t>
+  </si>
   <si>
     <t>南方中证申万有色金属ETF联接A</t>
   </si>
   <si>
-    <t>汇添富中证主要消费ETF联接</t>
-  </si>
-  <si>
     <t>富国中证新能源汽车</t>
   </si>
   <si>
@@ -59,73 +59,70 @@
     <t>年化波动率-2020/12/31至今</t>
   </si>
   <si>
-    <t>2.38%</t>
-  </si>
-  <si>
-    <t>2.14%</t>
-  </si>
-  <si>
-    <t>-1.62%</t>
-  </si>
-  <si>
-    <t>20.01%</t>
-  </si>
-  <si>
-    <t>11.17%</t>
-  </si>
-  <si>
-    <t>6.55%</t>
-  </si>
-  <si>
-    <t>9.43%</t>
-  </si>
-  <si>
-    <t>7.25%</t>
-  </si>
-  <si>
-    <t>0.78%</t>
-  </si>
-  <si>
-    <t>23.04%</t>
-  </si>
-  <si>
-    <t>10.97%</t>
-  </si>
-  <si>
-    <t>11.64%</t>
-  </si>
-  <si>
-    <t>21.50%</t>
-  </si>
-  <si>
-    <t>10.61%</t>
-  </si>
-  <si>
-    <t>15.64%</t>
-  </si>
-  <si>
-    <t>29.04%</t>
-  </si>
-  <si>
-    <t>15.72%</t>
-  </si>
-  <si>
-    <t>20.87%</t>
+    <t>9.52%</t>
+  </si>
+  <si>
+    <t>1.67%</t>
+  </si>
+  <si>
+    <t>-3.19%</t>
+  </si>
+  <si>
+    <t>22.90%</t>
+  </si>
+  <si>
+    <t>7.19%</t>
+  </si>
+  <si>
+    <t>-0.67%</t>
+  </si>
+  <si>
+    <t>18.44%</t>
+  </si>
+  <si>
+    <t>6.87%</t>
+  </si>
+  <si>
+    <t>-2.72%</t>
+  </si>
+  <si>
+    <t>24.03%</t>
+  </si>
+  <si>
+    <t>12.78%</t>
+  </si>
+  <si>
+    <t>15.76%</t>
+  </si>
+  <si>
+    <t>21.66%</t>
+  </si>
+  <si>
+    <t>11.19%</t>
+  </si>
+  <si>
+    <t>16.01%</t>
+  </si>
+  <si>
+    <t>28.63%</t>
+  </si>
+  <si>
+    <t>15.54%</t>
+  </si>
+  <si>
+    <t>20.71%</t>
   </si>
   <si>
     <t>场外权重</t>
   </si>
   <si>
-    <t>市盈率PE_TTM</t>
-  </si>
-  <si>
-    <t>市净率PB</t>
-  </si>
-  <si>
-    <t>营业收入同比增长率（%）</t>
-  </si>
-  <si>
-    <t>归母净利润同比增长率（%）</t>
+    <t>PB(LY)</t>
+  </si>
+  <si>
+    <t>PE(TTM)</t>
+  </si>
+  <si>
+    <t>归母净利润同比增长率</t>
   </si>
   <si>
     <t>场外基金</t>
@@ -134,67 +131,67 @@
     <t>场外代码</t>
   </si>
   <si>
+    <t>000248.OF</t>
+  </si>
+  <si>
     <t>004432.OF</t>
   </si>
   <si>
-    <t>000248.OF</t>
-  </si>
-  <si>
     <t>161028.OF</t>
   </si>
   <si>
-    <t>-1.50%</t>
-  </si>
-  <si>
-    <t>-5.98%</t>
-  </si>
-  <si>
-    <t>15.09%</t>
-  </si>
-  <si>
-    <t>14.33%</t>
-  </si>
-  <si>
-    <t>6.46%</t>
-  </si>
-  <si>
-    <t>41.45%</t>
-  </si>
-  <si>
-    <t>11.73%</t>
-  </si>
-  <si>
-    <t>-2.83%</t>
-  </si>
-  <si>
-    <t>19.32%</t>
-  </si>
-  <si>
-    <t>26.53%</t>
-  </si>
-  <si>
-    <t>16.54%</t>
-  </si>
-  <si>
-    <t>38.70%</t>
-  </si>
-  <si>
-    <t>29.01%</t>
-  </si>
-  <si>
-    <t>20.58%</t>
-  </si>
-  <si>
-    <t>33.35%</t>
-  </si>
-  <si>
-    <t>38.11%</t>
-  </si>
-  <si>
-    <t>28.64%</t>
-  </si>
-  <si>
-    <t>37.32%</t>
+    <t>-9.18%</t>
+  </si>
+  <si>
+    <t>12.18%</t>
+  </si>
+  <si>
+    <t>24.34%</t>
+  </si>
+  <si>
+    <t>-3.54%</t>
+  </si>
+  <si>
+    <t>23.14%</t>
+  </si>
+  <si>
+    <t>51.03%</t>
+  </si>
+  <si>
+    <t>-8.61%</t>
+  </si>
+  <si>
+    <t>27.53%</t>
+  </si>
+  <si>
+    <t>37.23%</t>
+  </si>
+  <si>
+    <t>18.20%</t>
+  </si>
+  <si>
+    <t>36.04%</t>
+  </si>
+  <si>
+    <t>36.71%</t>
+  </si>
+  <si>
+    <t>20.31%</t>
+  </si>
+  <si>
+    <t>32.11%</t>
+  </si>
+  <si>
+    <t>34.11%</t>
+  </si>
+  <si>
+    <t>28.26%</t>
+  </si>
+  <si>
+    <t>38.54%</t>
+  </si>
+  <si>
+    <t>37.22%</t>
   </si>
   <si>
     <t>股票代码</t>
@@ -209,60 +206,51 @@
     <t>财报主营构成</t>
   </si>
   <si>
-    <t>区间涨跌幅</t>
+    <t>区间收益率</t>
+  </si>
+  <si>
+    <t>000858.SZ</t>
+  </si>
+  <si>
+    <t>600519.SH</t>
+  </si>
+  <si>
+    <t>600887.SH</t>
+  </si>
+  <si>
+    <t>000568.SZ</t>
+  </si>
+  <si>
+    <t>603288.SH</t>
+  </si>
+  <si>
+    <t>002714.SZ</t>
+  </si>
+  <si>
+    <t>600809.SH</t>
   </si>
   <si>
     <t>002460.SZ</t>
   </si>
   <si>
-    <t>600519.SH</t>
-  </si>
-  <si>
-    <t>000858.SZ</t>
-  </si>
-  <si>
-    <t>601899.SH</t>
+    <t>002304.SZ</t>
+  </si>
+  <si>
+    <t>002812.SZ</t>
+  </si>
+  <si>
+    <t>600885.SH</t>
+  </si>
+  <si>
+    <t>002050.SZ</t>
   </si>
   <si>
     <t>002340.SZ</t>
   </si>
   <si>
-    <t>600887.SH</t>
-  </si>
-  <si>
-    <t>603799.SH</t>
-  </si>
-  <si>
-    <t>000568.SZ</t>
-  </si>
-  <si>
-    <t>603288.SH</t>
-  </si>
-  <si>
-    <t>002714.SZ</t>
-  </si>
-  <si>
-    <t>600809.SH</t>
-  </si>
-  <si>
-    <t>002812.SZ</t>
-  </si>
-  <si>
-    <t>600885.SH</t>
-  </si>
-  <si>
-    <t>002050.SZ</t>
-  </si>
-  <si>
     <t>300750.SZ</t>
   </si>
   <si>
-    <t>600111.SH</t>
-  </si>
-  <si>
-    <t>002304.SZ</t>
-  </si>
-  <si>
     <t>300450.SZ</t>
   </si>
   <si>
@@ -272,114 +260,117 @@
     <t>002594.SZ</t>
   </si>
   <si>
-    <t>5.33%</t>
-  </si>
-  <si>
-    <t>3.63%</t>
-  </si>
-  <si>
-    <t>3.46%</t>
-  </si>
-  <si>
-    <t>3.34%</t>
-  </si>
-  <si>
-    <t>3.14%</t>
-  </si>
-  <si>
-    <t>2.99%</t>
-  </si>
-  <si>
-    <t>2.57%</t>
-  </si>
-  <si>
-    <t>2.51%</t>
-  </si>
-  <si>
-    <t>2.16%</t>
-  </si>
-  <si>
-    <t>2.08%</t>
-  </si>
-  <si>
-    <t>2.01%</t>
-  </si>
-  <si>
-    <t>1.70%</t>
-  </si>
-  <si>
-    <t>1.68%</t>
-  </si>
-  <si>
-    <t>1.67%</t>
-  </si>
-  <si>
-    <t>1.65%</t>
-  </si>
-  <si>
-    <t>1.64%</t>
-  </si>
-  <si>
-    <t>1.61%</t>
-  </si>
-  <si>
-    <t>1.60%</t>
-  </si>
-  <si>
-    <t>1.59%</t>
+    <t>300014.SZ</t>
+  </si>
+  <si>
+    <t>600066.SH</t>
+  </si>
+  <si>
+    <t>603659.SH</t>
+  </si>
+  <si>
+    <t>335.74%</t>
+  </si>
+  <si>
+    <t>319.41%</t>
+  </si>
+  <si>
+    <t>309.21%</t>
+  </si>
+  <si>
+    <t>238.52%</t>
+  </si>
+  <si>
+    <t>224.93%</t>
+  </si>
+  <si>
+    <t>220.90%</t>
+  </si>
+  <si>
+    <t>215.56%</t>
+  </si>
+  <si>
+    <t>177.44%</t>
+  </si>
+  <si>
+    <t>172.39%</t>
+  </si>
+  <si>
+    <t>169.82%</t>
+  </si>
+  <si>
+    <t>168.13%</t>
+  </si>
+  <si>
+    <t>166.91%</t>
+  </si>
+  <si>
+    <t>166.88%</t>
+  </si>
+  <si>
+    <t>165.26%</t>
+  </si>
+  <si>
+    <t>160.51%</t>
+  </si>
+  <si>
+    <t>159.82%</t>
+  </si>
+  <si>
+    <t>158.53%</t>
+  </si>
+  <si>
+    <t>144.74%</t>
+  </si>
+  <si>
+    <t>144.67%</t>
+  </si>
+  <si>
+    <t>131.87%</t>
+  </si>
+  <si>
+    <t>五粮液</t>
+  </si>
+  <si>
+    <t>贵州茅台</t>
+  </si>
+  <si>
+    <t>伊利股份</t>
+  </si>
+  <si>
+    <t>泸州老窖</t>
+  </si>
+  <si>
+    <t>海天味业</t>
+  </si>
+  <si>
+    <t>牧原股份</t>
+  </si>
+  <si>
+    <t>山西汾酒</t>
   </si>
   <si>
     <t>赣锋锂业</t>
   </si>
   <si>
-    <t>贵州茅台</t>
-  </si>
-  <si>
-    <t>五粮液</t>
-  </si>
-  <si>
-    <t>紫金矿业</t>
+    <t>洋河股份</t>
+  </si>
+  <si>
+    <t>恩捷股份</t>
+  </si>
+  <si>
+    <t>宏发股份</t>
+  </si>
+  <si>
+    <t>三花智控</t>
   </si>
   <si>
     <t>格林美</t>
   </si>
   <si>
-    <t>伊利股份</t>
-  </si>
-  <si>
-    <t>华友钴业</t>
-  </si>
-  <si>
-    <t>泸州老窖</t>
-  </si>
-  <si>
-    <t>海天味业</t>
-  </si>
-  <si>
-    <t>牧原股份</t>
-  </si>
-  <si>
-    <t>山西汾酒</t>
-  </si>
-  <si>
-    <t>恩捷股份</t>
-  </si>
-  <si>
-    <t>宏发股份</t>
-  </si>
-  <si>
-    <t>三花智控</t>
-  </si>
-  <si>
     <t>宁德时代</t>
   </si>
   <si>
-    <t>北方稀土</t>
-  </si>
-  <si>
-    <t>洋河股份</t>
-  </si>
-  <si>
     <t>先导智能</t>
   </si>
   <si>
@@ -389,54 +380,54 @@
     <t>比亚迪</t>
   </si>
   <si>
+    <t>亿纬锂能</t>
+  </si>
+  <si>
+    <t>宇通客车</t>
+  </si>
+  <si>
+    <t>璞泰来</t>
+  </si>
+  <si>
+    <t>酒类</t>
+  </si>
+  <si>
+    <t>茅台酒</t>
+  </si>
+  <si>
+    <t>液体乳</t>
+  </si>
+  <si>
+    <t>中高档酒类</t>
+  </si>
+  <si>
+    <t>酱油</t>
+  </si>
+  <si>
+    <t>生猪</t>
+  </si>
+  <si>
+    <t>白酒</t>
+  </si>
+  <si>
     <t>锂系列产品</t>
   </si>
   <si>
-    <t>茅台酒</t>
-  </si>
-  <si>
-    <t>酒类</t>
-  </si>
-  <si>
-    <t>加工、冶炼及贸易金</t>
+    <t>膜类产品</t>
+  </si>
+  <si>
+    <t>继电器产品</t>
+  </si>
+  <si>
+    <t>空调冰箱之元器件及部件</t>
   </si>
   <si>
     <t>三元材料</t>
   </si>
   <si>
-    <t>液体乳</t>
-  </si>
-  <si>
-    <t>其他</t>
-  </si>
-  <si>
-    <t>中高档酒类</t>
-  </si>
-  <si>
-    <t>酱油</t>
-  </si>
-  <si>
-    <t>生猪</t>
-  </si>
-  <si>
-    <t>白酒</t>
-  </si>
-  <si>
-    <t>膜类产品</t>
-  </si>
-  <si>
-    <t>继电器产品</t>
-  </si>
-  <si>
-    <t>空调冰箱之元器件及部件</t>
-  </si>
-  <si>
     <t>动力电池系统</t>
   </si>
   <si>
-    <t>其他业务</t>
-  </si>
-  <si>
     <t>锂电池设备</t>
   </si>
   <si>
@@ -446,64 +437,73 @@
     <t>汽车</t>
   </si>
   <si>
-    <t>21.15%</t>
-  </si>
-  <si>
-    <t>9.82%</t>
-  </si>
-  <si>
-    <t>6.77%</t>
-  </si>
-  <si>
-    <t>7.55%</t>
-  </si>
-  <si>
-    <t>37.76%</t>
-  </si>
-  <si>
-    <t>-13.35%</t>
-  </si>
-  <si>
-    <t>47.51%</t>
-  </si>
-  <si>
-    <t>4.71%</t>
-  </si>
-  <si>
-    <t>-13.36%</t>
-  </si>
-  <si>
-    <t>18.14%</t>
-  </si>
-  <si>
-    <t>22.60%</t>
-  </si>
-  <si>
-    <t>61.61%</t>
-  </si>
-  <si>
-    <t>13.98%</t>
-  </si>
-  <si>
-    <t>0.16%</t>
-  </si>
-  <si>
-    <t>45.26%</t>
-  </si>
-  <si>
-    <t>59.14%</t>
-  </si>
-  <si>
-    <t>-6.90%</t>
-  </si>
-  <si>
-    <t>11.23%</t>
-  </si>
-  <si>
-    <t>17.94%</t>
-  </si>
-  <si>
-    <t>36.36%</t>
+    <t>锂离子电池</t>
+  </si>
+  <si>
+    <t>客车产品</t>
+  </si>
+  <si>
+    <t>负极材料</t>
+  </si>
+  <si>
+    <t>-4.64%</t>
+  </si>
+  <si>
+    <t>2.40%</t>
+  </si>
+  <si>
+    <t>-19.50%</t>
+  </si>
+  <si>
+    <t>-0.49%</t>
+  </si>
+  <si>
+    <t>-23.57%</t>
+  </si>
+  <si>
+    <t>7.27%</t>
+  </si>
+  <si>
+    <t>19.71%</t>
+  </si>
+  <si>
+    <t>65.23%</t>
+  </si>
+  <si>
+    <t>-15.98%</t>
+  </si>
+  <si>
+    <t>92.74%</t>
+  </si>
+  <si>
+    <t>28.06%</t>
+  </si>
+  <si>
+    <t>-0.43%</t>
+  </si>
+  <si>
+    <t>71.37%</t>
+  </si>
+  <si>
+    <t>66.49%</t>
+  </si>
+  <si>
+    <t>28.45%</t>
+  </si>
+  <si>
+    <t>38.18%</t>
+  </si>
+  <si>
+    <t>43.27%</t>
+  </si>
+  <si>
+    <t>62.80%</t>
+  </si>
+  <si>
+    <t>-22.77%</t>
+  </si>
+  <si>
+    <t>121.25%</t>
   </si>
   <si>
     <t>一级标签</t>
@@ -518,43 +518,43 @@
     <t>锂电池</t>
   </si>
   <si>
-    <t>有色金属</t>
-  </si>
-  <si>
     <t>饲料养殖</t>
   </si>
   <si>
     <t>电气设备</t>
   </si>
   <si>
-    <t>家电家具</t>
-  </si>
-  <si>
-    <t>太阳能光伏</t>
-  </si>
-  <si>
-    <t>38.33%</t>
-  </si>
-  <si>
-    <t>33.33%</t>
-  </si>
-  <si>
-    <t>10.37%</t>
-  </si>
-  <si>
-    <t>4.33%</t>
-  </si>
-  <si>
-    <t>3.50%</t>
-  </si>
-  <si>
-    <t>3.48%</t>
-  </si>
-  <si>
-    <t>3.33%</t>
-  </si>
-  <si>
-    <t>3.31%</t>
+    <t>家用电器</t>
+  </si>
+  <si>
+    <t>光伏太阳能</t>
+  </si>
+  <si>
+    <t xml:space="preserve">锂电池 </t>
+  </si>
+  <si>
+    <t>31.78%</t>
+  </si>
+  <si>
+    <t>17.01%</t>
+  </si>
+  <si>
+    <t>5.31%</t>
+  </si>
+  <si>
+    <t>3.87%</t>
+  </si>
+  <si>
+    <t>2.94%</t>
+  </si>
+  <si>
+    <t>2.92%</t>
+  </si>
+  <si>
+    <t>2.80%</t>
+  </si>
+  <si>
+    <t>2.53%</t>
   </si>
 </sst>
 </file>
@@ -918,7 +918,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G118"/>
+  <dimension ref="A1:G127"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -975,16 +975,16 @@
         <v>44200</v>
       </c>
       <c r="B3">
+        <v>1.03771535910305</v>
+      </c>
+      <c r="C3">
         <v>1.053925925925926</v>
       </c>
-      <c r="C3">
-        <v>1.03771535910305</v>
-      </c>
       <c r="D3">
-        <v>1.067860508953817</v>
+        <v>1.067812326142054</v>
       </c>
       <c r="E3">
-        <v>1.053174851273581</v>
+        <v>1.05299684527747</v>
       </c>
       <c r="F3">
         <v>1.018168368380631</v>
@@ -998,16 +998,16 @@
         <v>44201</v>
       </c>
       <c r="B4">
+        <v>1.088139473452496</v>
+      </c>
+      <c r="C4">
         <v>1.065283950617284</v>
       </c>
-      <c r="C4">
-        <v>1.088139473452496</v>
-      </c>
       <c r="D4">
-        <v>1.074458058435438</v>
+        <v>1.07442665512765</v>
       </c>
       <c r="E4">
-        <v>1.075853728732895</v>
+        <v>1.076071920869677</v>
       </c>
       <c r="F4">
         <v>1.027111201157197</v>
@@ -1021,16 +1021,16 @@
         <v>44202</v>
       </c>
       <c r="B5">
+        <v>1.09644565759737</v>
+      </c>
+      <c r="C5">
         <v>1.070320987654321</v>
       </c>
-      <c r="C5">
-        <v>1.09644565759737</v>
-      </c>
       <c r="D5">
-        <v>1.05937794533459</v>
+        <v>1.05934351239414</v>
       </c>
       <c r="E5">
-        <v>1.075330924770016</v>
+        <v>1.075580808599098</v>
       </c>
       <c r="F5">
         <v>1.025290909062353</v>
@@ -1044,16 +1044,16 @@
         <v>44203</v>
       </c>
       <c r="B6">
+        <v>1.110211029908133</v>
+      </c>
+      <c r="C6">
         <v>1.109135802469136</v>
       </c>
-      <c r="C6">
-        <v>1.110211029908133</v>
-      </c>
       <c r="D6">
-        <v>1.086710650329878</v>
+        <v>1.086666254558942</v>
       </c>
       <c r="E6">
-        <v>1.10209032731805</v>
+        <v>1.102086428988031</v>
       </c>
       <c r="F6">
         <v>1.026858339183711</v>
@@ -1067,16 +1067,16 @@
         <v>44204</v>
       </c>
       <c r="B7">
+        <v>1.080948607320008</v>
+      </c>
+      <c r="C7">
         <v>1.105481481481482</v>
       </c>
-      <c r="C7">
-        <v>1.080948607320008</v>
-      </c>
       <c r="D7">
-        <v>1.077285579641847</v>
+        <v>1.07727019842987</v>
       </c>
       <c r="E7">
-        <v>1.088080985401116</v>
+        <v>1.087830580859549</v>
       </c>
       <c r="F7">
         <v>1.029917812005761</v>
@@ -1090,16 +1090,16 @@
         <v>44207</v>
       </c>
       <c r="B8">
+        <v>1.047577118370462</v>
+      </c>
+      <c r="C8">
         <v>1.064395061728395</v>
       </c>
-      <c r="C8">
-        <v>1.047577118370462</v>
-      </c>
       <c r="D8">
-        <v>1.04052780395853</v>
+        <v>1.040489583977252</v>
       </c>
       <c r="E8">
-        <v>1.050968945356222</v>
+        <v>1.050788153328821</v>
       </c>
       <c r="F8">
         <v>1.013866573688848</v>
@@ -1113,16 +1113,16 @@
         <v>44208</v>
       </c>
       <c r="B9">
+        <v>1.069736726248129</v>
+      </c>
+      <c r="C9">
         <v>1.087012345679012</v>
       </c>
-      <c r="C9">
-        <v>1.069736726248129</v>
-      </c>
       <c r="D9">
-        <v>1.063147973609802</v>
+        <v>1.063114298077517</v>
       </c>
       <c r="E9">
-        <v>1.073436148483982</v>
+        <v>1.073252279364019</v>
       </c>
       <c r="F9">
         <v>1.027660901099557</v>
@@ -1136,16 +1136,16 @@
         <v>44209</v>
       </c>
       <c r="B10">
+        <v>1.058201989962138</v>
+      </c>
+      <c r="C10">
         <v>1.054716049382716</v>
       </c>
-      <c r="C10">
-        <v>1.058201989962138</v>
-      </c>
       <c r="D10">
-        <v>1.032045240339303</v>
+        <v>1.032020770229338</v>
       </c>
       <c r="E10">
-        <v>1.048385042789599</v>
+        <v>1.048411827059105</v>
       </c>
       <c r="F10">
         <v>1.020386015005238</v>
@@ -1159,16 +1159,16 @@
         <v>44210</v>
       </c>
       <c r="B11">
+        <v>1.032608376625283</v>
+      </c>
+      <c r="C11">
         <v>1.036444444444445</v>
       </c>
-      <c r="C11">
-        <v>1.032608376625283</v>
-      </c>
       <c r="D11">
-        <v>1.005655042412818</v>
+        <v>1.005625270445694</v>
       </c>
       <c r="E11">
-        <v>1.025018039393685</v>
+        <v>1.024969853966342</v>
       </c>
       <c r="F11">
         <v>1.011430617658561</v>
@@ -1182,16 +1182,16 @@
         <v>44211</v>
       </c>
       <c r="B12">
+        <v>1.013354465674621</v>
+      </c>
+      <c r="C12">
         <v>1.045925925925926</v>
       </c>
-      <c r="C12">
-        <v>1.013354465674621</v>
-      </c>
       <c r="D12">
-        <v>1.02827521206409</v>
+        <v>1.02824998454596</v>
       </c>
       <c r="E12">
-        <v>1.02935260846859</v>
+        <v>1.029018568785093</v>
       </c>
       <c r="F12">
         <v>1.007914108598721</v>
@@ -1205,16 +1205,16 @@
         <v>44214</v>
       </c>
       <c r="B13">
+        <v>1.011534736285991</v>
+      </c>
+      <c r="C13">
         <v>1.060938271604938</v>
       </c>
-      <c r="C13">
-        <v>1.011534736285991</v>
-      </c>
       <c r="D13">
-        <v>1.034872761545712</v>
+        <v>1.034864313531557</v>
       </c>
       <c r="E13">
-        <v>1.036033486630141</v>
+        <v>1.035536663432281</v>
       </c>
       <c r="F13">
         <v>1.023142367573358</v>
@@ -1228,16 +1228,16 @@
         <v>44215</v>
       </c>
       <c r="B14">
+        <v>0.9922808253353291</v>
+      </c>
+      <c r="C14">
         <v>1.025975308641975</v>
       </c>
-      <c r="C14">
-        <v>0.9922808253353291</v>
-      </c>
       <c r="D14">
-        <v>1.008482563619227</v>
+        <v>1.008468813747914</v>
       </c>
       <c r="E14">
-        <v>1.009083523293275</v>
+        <v>1.008742041002675</v>
       </c>
       <c r="F14">
         <v>1.017160061629216</v>
@@ -1251,16 +1251,16 @@
         <v>44216</v>
       </c>
       <c r="B15">
+        <v>0.9986205277215228</v>
+      </c>
+      <c r="C15">
         <v>1.05441975308642</v>
       </c>
-      <c r="C15">
-        <v>0.9986205277215228</v>
-      </c>
       <c r="D15">
-        <v>1.051837888784166</v>
+        <v>1.051801941027385</v>
       </c>
       <c r="E15">
-        <v>1.03515399349626</v>
+        <v>1.034584138482873</v>
       </c>
       <c r="F15">
         <v>1.026434284942462</v>
@@ -1274,16 +1274,16 @@
         <v>44217</v>
       </c>
       <c r="B16">
+        <v>1.019840920430865</v>
+      </c>
+      <c r="C16">
         <v>1.089777777777778</v>
       </c>
-      <c r="C16">
-        <v>1.019840920430865</v>
-      </c>
       <c r="D16">
-        <v>1.073515551366635</v>
+        <v>1.073499412746492</v>
       </c>
       <c r="E16">
-        <v>1.06133208013762</v>
+        <v>1.060627385819503</v>
       </c>
       <c r="F16">
         <v>1.04011081950838</v>
@@ -1297,16 +1297,16 @@
         <v>44218</v>
       </c>
       <c r="B17">
+        <v>1.018725602418479</v>
+      </c>
+      <c r="C17">
         <v>1.099555555555556</v>
       </c>
-      <c r="C17">
-        <v>1.018725602418479</v>
-      </c>
       <c r="D17">
-        <v>1.100848256361923</v>
+        <v>1.100822154911294</v>
       </c>
       <c r="E17">
-        <v>1.073308262286421</v>
+        <v>1.072491349276343</v>
       </c>
       <c r="F17">
         <v>1.042515364113389</v>
@@ -1320,16 +1320,16 @@
         <v>44221</v>
       </c>
       <c r="B18">
+        <v>1.055443045405183</v>
+      </c>
+      <c r="C18">
         <v>1.114567901234568</v>
       </c>
-      <c r="C18">
-        <v>1.055443045405183</v>
-      </c>
       <c r="D18">
-        <v>1.098020735155514</v>
+        <v>1.097978611609075</v>
       </c>
       <c r="E18">
-        <v>1.089596134004783</v>
+        <v>1.088990984676165</v>
       </c>
       <c r="F18">
         <v>1.043693292561303</v>
@@ -1343,16 +1343,16 @@
         <v>44222</v>
       </c>
       <c r="B19">
+        <v>1.047048809838279</v>
+      </c>
+      <c r="C19">
         <v>1.095308641975309</v>
       </c>
-      <c r="C19">
-        <v>1.047048809838279</v>
-      </c>
       <c r="D19">
-        <v>1.067860508953817</v>
+        <v>1.067812326142054</v>
       </c>
       <c r="E19">
-        <v>1.070325013472997</v>
+        <v>1.069826514823744</v>
       </c>
       <c r="F19">
         <v>1.026047924411546</v>
@@ -1366,16 +1366,16 @@
         <v>44223</v>
       </c>
       <c r="B20">
+        <v>1.038419770479293</v>
+      </c>
+      <c r="C20">
         <v>1.088987654320988</v>
       </c>
-      <c r="C20">
-        <v>1.038419770479293</v>
-      </c>
       <c r="D20">
-        <v>1.073515551366635</v>
+        <v>1.073499412746492</v>
       </c>
       <c r="E20">
-        <v>1.067194458678292</v>
+        <v>1.066683454095228</v>
       </c>
       <c r="F20">
         <v>1.02984870687015</v>
@@ -1389,16 +1389,16 @@
         <v>44224</v>
       </c>
       <c r="B21">
+        <v>1.020017023274926</v>
+      </c>
+      <c r="C21">
         <v>1.051160493827161</v>
       </c>
-      <c r="C21">
-        <v>1.020017023274926</v>
-      </c>
       <c r="D21">
-        <v>1.033930254476909</v>
+        <v>1.033875254991655</v>
       </c>
       <c r="E21">
-        <v>1.03519716955934</v>
+        <v>1.034867585023684</v>
       </c>
       <c r="F21">
         <v>1.007424090364388</v>
@@ -1412,16 +1412,16 @@
         <v>44225</v>
       </c>
       <c r="B22">
+        <v>1.018402747204368</v>
+      </c>
+      <c r="C22">
         <v>1.039111111111111</v>
       </c>
-      <c r="C22">
-        <v>1.018402747204368</v>
-      </c>
       <c r="D22">
-        <v>1.015080113100848</v>
+        <v>1.015021326574767</v>
       </c>
       <c r="E22">
-        <v>1.024347121678499</v>
+        <v>1.024120638485825</v>
       </c>
       <c r="F22">
         <v>0.9967065120596316</v>
@@ -1435,16 +1435,16 @@
         <v>44228</v>
       </c>
       <c r="B23">
+        <v>1.021543247923454</v>
+      </c>
+      <c r="C23">
         <v>1.05037037037037</v>
       </c>
-      <c r="C23">
-        <v>1.021543247923454</v>
-      </c>
       <c r="D23">
-        <v>1.016022620169651</v>
+        <v>1.016010385114669</v>
       </c>
       <c r="E23">
-        <v>1.029522662396651</v>
+        <v>1.029230353604037</v>
       </c>
       <c r="F23">
         <v>1.004110184997589</v>
@@ -1458,16 +1458,16 @@
         <v>44229</v>
       </c>
       <c r="B24">
+        <v>1.051333979043761</v>
+      </c>
+      <c r="C24">
         <v>1.079506172839506</v>
       </c>
-      <c r="C24">
-        <v>1.051333979043761</v>
-      </c>
       <c r="D24">
-        <v>1.057492931196984</v>
+        <v>1.057489027631823</v>
       </c>
       <c r="E24">
-        <v>1.062944979144878</v>
+        <v>1.062661969030418</v>
       </c>
       <c r="F24">
         <v>1.013770768841751</v>
@@ -1481,16 +1481,16 @@
         <v>44230</v>
       </c>
       <c r="B25">
+        <v>1.057116022423762</v>
+      </c>
+      <c r="C25">
         <v>1.085037037037037</v>
       </c>
-      <c r="C25">
-        <v>1.057116022423762</v>
-      </c>
       <c r="D25">
-        <v>1.054665409990575</v>
+        <v>1.054645484329604</v>
       </c>
       <c r="E25">
-        <v>1.065800465289324</v>
+        <v>1.065514679675071</v>
       </c>
       <c r="F25">
         <v>1.00506038061224</v>
@@ -1504,16 +1504,16 @@
         <v>44231</v>
       </c>
       <c r="B26">
+        <v>1.059874966980717</v>
+      </c>
+      <c r="C26">
         <v>1.041679012345679</v>
       </c>
-      <c r="C26">
-        <v>1.059874966980717</v>
-      </c>
       <c r="D26">
-        <v>1.0311027332705</v>
+        <v>1.031093527848179</v>
       </c>
       <c r="E26">
-        <v>1.044193505280432</v>
+        <v>1.044372427037417</v>
       </c>
       <c r="F26">
         <v>0.9939815709167896</v>
@@ -1527,16 +1527,16 @@
         <v>44232</v>
       </c>
       <c r="B27">
+        <v>1.069208417715946</v>
+      </c>
+      <c r="C27">
         <v>0.992888888888889</v>
       </c>
-      <c r="C27">
-        <v>1.069208417715946</v>
-      </c>
       <c r="D27">
-        <v>1.002827521206409</v>
+        <v>1.002781727143475</v>
       </c>
       <c r="E27">
-        <v>1.021354082066599</v>
+        <v>1.022102165314102</v>
       </c>
       <c r="F27">
         <v>0.9800160512383169</v>
@@ -1550,16 +1550,16 @@
         <v>44235</v>
       </c>
       <c r="B28">
+        <v>1.089577646678994</v>
+      </c>
+      <c r="C28">
         <v>1.030518518518519</v>
       </c>
-      <c r="C28">
-        <v>1.089577646678994</v>
-      </c>
       <c r="D28">
-        <v>1.019792648444863</v>
+        <v>1.019781170798047</v>
       </c>
       <c r="E28">
-        <v>1.046468493687169</v>
+        <v>1.047055297345324</v>
       </c>
       <c r="F28">
         <v>0.9930973392952219</v>
@@ -1573,16 +1573,16 @@
         <v>44236</v>
       </c>
       <c r="B29">
+        <v>1.114848404801738</v>
+      </c>
+      <c r="C29">
         <v>1.078518518518519</v>
       </c>
-      <c r="C29">
-        <v>1.114848404801738</v>
-      </c>
       <c r="D29">
-        <v>1.04995287464656</v>
+        <v>1.049947456265068</v>
       </c>
       <c r="E29">
-        <v>1.081080718514234</v>
+        <v>1.081442229311174</v>
       </c>
       <c r="F29">
         <v>1.014256075362292</v>
@@ -1596,16 +1596,16 @@
         <v>44237</v>
       </c>
       <c r="B30">
+        <v>1.151976754424584</v>
+      </c>
+      <c r="C30">
         <v>1.106172839506173</v>
       </c>
-      <c r="C30">
-        <v>1.151976754424584</v>
-      </c>
       <c r="D30">
-        <v>1.062205466540999</v>
+        <v>1.062187055696359</v>
       </c>
       <c r="E30">
-        <v>1.106778898350741</v>
+        <v>1.107230861921194</v>
       </c>
       <c r="F30">
         <v>1.024824449396979</v>
@@ -1619,16 +1619,16 @@
         <v>44245</v>
       </c>
       <c r="B31">
+        <v>1.118106307416865</v>
+      </c>
+      <c r="C31">
         <v>1.177382716049383</v>
       </c>
-      <c r="C31">
-        <v>1.118106307416865</v>
-      </c>
       <c r="D31">
-        <v>1.039585296889727</v>
+        <v>1.039562341596093</v>
       </c>
       <c r="E31">
-        <v>1.112348352877965</v>
+        <v>1.111748013544741</v>
       </c>
       <c r="F31">
         <v>1.038860644782327</v>
@@ -1642,16 +1642,16 @@
         <v>44246</v>
       </c>
       <c r="B32">
+        <v>1.135041530920724</v>
+      </c>
+      <c r="C32">
         <v>1.193679012345679</v>
       </c>
-      <c r="C32">
-        <v>1.135041530920724</v>
-      </c>
       <c r="D32">
-        <v>1.024505183788878</v>
+        <v>1.024479198862583</v>
       </c>
       <c r="E32">
-        <v>1.1185012800517</v>
+        <v>1.117906330211773</v>
       </c>
       <c r="F32">
         <v>1.052829305603327</v>
@@ -1665,16 +1665,16 @@
         <v>44249</v>
       </c>
       <c r="B33">
+        <v>1.084118458513105</v>
+      </c>
+      <c r="C33">
         <v>1.248592592592593</v>
       </c>
-      <c r="C33">
-        <v>1.084118458513105</v>
-      </c>
       <c r="D33">
-        <v>1.007540056550424</v>
+        <v>1.007479755208011</v>
       </c>
       <c r="E33">
-        <v>1.114768791452446</v>
+        <v>1.113104150668655</v>
       </c>
       <c r="F33">
         <v>1.045538713796369</v>
@@ -1688,16 +1688,16 @@
         <v>44250</v>
       </c>
       <c r="B34">
+        <v>1.074139297349652</v>
+      </c>
+      <c r="C34">
         <v>1.233283950617284</v>
       </c>
-      <c r="C34">
-        <v>1.074139297349652</v>
-      </c>
       <c r="D34">
-        <v>0.9896324222431668</v>
+        <v>0.9896148853310256</v>
       </c>
       <c r="E34">
-        <v>1.100361210675507</v>
+        <v>1.098763976961824</v>
       </c>
       <c r="F34">
         <v>1.041481928221752</v>
@@ -1711,16 +1711,16 @@
         <v>44251</v>
       </c>
       <c r="B35">
+        <v>1.037363153414928</v>
+      </c>
+      <c r="C35">
         <v>1.182617283950617</v>
       </c>
-      <c r="C35">
-        <v>1.037363153414928</v>
-      </c>
       <c r="D35">
-        <v>0.9547596606974551</v>
+        <v>0.9547505717994684</v>
       </c>
       <c r="E35">
-        <v>1.059490405200296</v>
+        <v>1.058034864558604</v>
       </c>
       <c r="F35">
         <v>1.026555218929781</v>
@@ -1734,16 +1734,16 @@
         <v>44252</v>
       </c>
       <c r="B36">
+        <v>1.027530744621526</v>
+      </c>
+      <c r="C36">
         <v>1.170172839506173</v>
       </c>
-      <c r="C36">
-        <v>1.027530744621526</v>
-      </c>
       <c r="D36">
-        <v>0.9377945334590009</v>
+        <v>0.937751128144897</v>
       </c>
       <c r="E36">
-        <v>1.046416107198673</v>
+        <v>1.044975362496172</v>
       </c>
       <c r="F36">
         <v>1.020737822968348</v>
@@ -1757,16 +1757,16 @@
         <v>44253</v>
       </c>
       <c r="B37">
+        <v>1.001085967538376</v>
+      </c>
+      <c r="C37">
         <v>1.12079012345679</v>
       </c>
-      <c r="C37">
-        <v>1.001085967538376</v>
-      </c>
       <c r="D37">
-        <v>0.9180018850141376</v>
+        <v>0.9179699573468506</v>
       </c>
       <c r="E37">
-        <v>1.014367633317638</v>
+        <v>1.013160055628249</v>
       </c>
       <c r="F37">
         <v>0.9995665223311676</v>
@@ -1780,16 +1780,16 @@
         <v>44256</v>
       </c>
       <c r="B38">
+        <v>1.011886941974113</v>
+      </c>
+      <c r="C38">
         <v>1.159308641975309</v>
       </c>
-      <c r="C38">
-        <v>1.011886941974113</v>
-      </c>
       <c r="D38">
-        <v>0.9538171536286523</v>
+        <v>0.953761513259566</v>
       </c>
       <c r="E38">
-        <v>1.042847289820517</v>
+        <v>1.041354711498707</v>
       </c>
       <c r="F38">
         <v>1.019055741144727</v>
@@ -1803,16 +1803,16 @@
         <v>44257</v>
       </c>
       <c r="B39">
+        <v>0.9921634234392885</v>
+      </c>
+      <c r="C39">
         <v>1.122864197530864</v>
       </c>
-      <c r="C39">
-        <v>0.9921634234392885</v>
-      </c>
       <c r="D39">
-        <v>0.9575871819038644</v>
+        <v>0.9575322989429437</v>
       </c>
       <c r="E39">
-        <v>1.025191526923734</v>
+        <v>1.023866407805715</v>
       </c>
       <c r="F39">
         <v>1.010400322909452</v>
@@ -1826,16 +1826,16 @@
         <v>44258</v>
       </c>
       <c r="B40">
+        <v>1.004901529159696</v>
+      </c>
+      <c r="C40">
         <v>1.161975308641976</v>
       </c>
-      <c r="C40">
-        <v>1.004901529159696</v>
-      </c>
       <c r="D40">
-        <v>0.9651272384542884</v>
+        <v>0.9650738703096989</v>
       </c>
       <c r="E40">
-        <v>1.045181098250886</v>
+        <v>1.043592748968349</v>
       </c>
       <c r="F40">
         <v>1.024758485403896</v>
@@ -1849,16 +1849,16 @@
         <v>44259</v>
       </c>
       <c r="B41">
+        <v>0.9637521645974583</v>
+      </c>
+      <c r="C41">
         <v>1.119012345679012</v>
       </c>
-      <c r="C41">
-        <v>0.9637521645974583</v>
-      </c>
       <c r="D41">
-        <v>0.9180018850141376</v>
+        <v>0.9179699573468506</v>
       </c>
       <c r="E41">
-        <v>1.001443033902691</v>
+        <v>0.9998798959616707</v>
       </c>
       <c r="F41">
         <v>1.005478152568434</v>
@@ -1872,16 +1872,16 @@
         <v>44260</v>
       </c>
       <c r="B42">
+        <v>0.9635760617533974</v>
+      </c>
+      <c r="C42">
         <v>1.084641975308642</v>
       </c>
-      <c r="C42">
-        <v>0.9635760617533974</v>
-      </c>
       <c r="D42">
-        <v>0.9245994344957587</v>
+        <v>0.9245842863324474</v>
       </c>
       <c r="E42">
-        <v>0.9918761853671598</v>
+        <v>0.9906605273377147</v>
       </c>
       <c r="F42">
         <v>1.005715308829281</v>
@@ -1895,16 +1895,16 @@
         <v>44263</v>
       </c>
       <c r="B43">
+        <v>0.915881541486895</v>
+      </c>
+      <c r="C43">
         <v>1.056197530864198</v>
       </c>
-      <c r="C43">
-        <v>0.915881541486895</v>
-      </c>
       <c r="D43">
-        <v>0.8812441093308201</v>
+        <v>0.8811893428942326</v>
       </c>
       <c r="E43">
-        <v>0.9521586252636733</v>
+        <v>0.9507373924458262</v>
       </c>
       <c r="F43">
         <v>0.9826137761087841</v>
@@ -1918,16 +1918,16 @@
         <v>44264</v>
       </c>
       <c r="B44">
+        <v>0.8903172786240497</v>
+      </c>
+      <c r="C44">
         <v>1.04</v>
       </c>
-      <c r="C44">
-        <v>0.8903172786240497</v>
-      </c>
       <c r="D44">
-        <v>0.8671065032987748</v>
+        <v>0.8670952587006244</v>
       </c>
       <c r="E44">
-        <v>0.9335498480345321</v>
+        <v>0.932049310103383</v>
       </c>
       <c r="F44">
         <v>0.9593049279814547</v>
@@ -1941,16 +1941,16 @@
         <v>44265</v>
       </c>
       <c r="B45">
+        <v>0.9041120014088229</v>
+      </c>
+      <c r="C45">
         <v>1.039012345679012</v>
       </c>
-      <c r="C45">
-        <v>0.9041120014088229</v>
-      </c>
       <c r="D45">
-        <v>0.8821866163996231</v>
+        <v>0.882178401434135</v>
       </c>
       <c r="E45">
-        <v>0.9427427414076515</v>
+        <v>0.9413910270263384</v>
       </c>
       <c r="F45">
         <v>0.952121135020441</v>
@@ -1964,16 +1964,16 @@
         <v>44266</v>
       </c>
       <c r="B46">
+        <v>0.9282967919931907</v>
+      </c>
+      <c r="C46">
         <v>1.099950617283951</v>
       </c>
-      <c r="C46">
-        <v>0.9282967919931907</v>
-      </c>
       <c r="D46">
-        <v>0.9066918001885014</v>
+        <v>0.9066576002967175</v>
       </c>
       <c r="E46">
-        <v>0.9795294452965015</v>
+        <v>0.9778016210793052</v>
       </c>
       <c r="F46">
         <v>0.9759262836671583</v>
@@ -1987,16 +1987,16 @@
         <v>44267</v>
       </c>
       <c r="B47">
+        <v>0.927386927298876</v>
+      </c>
+      <c r="C47">
         <v>1.087901234567901</v>
       </c>
-      <c r="C47">
-        <v>0.927386927298876</v>
-      </c>
       <c r="D47">
-        <v>0.9132893496701224</v>
+        <v>0.9132719292823145</v>
       </c>
       <c r="E47">
-        <v>0.9773095911528559</v>
+        <v>0.975698699352189</v>
       </c>
       <c r="F47">
         <v>0.9772691220977807</v>
@@ -2010,16 +2010,16 @@
         <v>44270</v>
       </c>
       <c r="B48">
+        <v>0.8954242611018169</v>
+      </c>
+      <c r="C48">
         <v>1.089876543209876</v>
       </c>
-      <c r="C48">
-        <v>0.8954242611018169</v>
-      </c>
       <c r="D48">
-        <v>0.889726672950047</v>
+        <v>0.8897199728008902</v>
       </c>
       <c r="E48">
-        <v>0.9596578329284733</v>
+        <v>0.9577110990581709</v>
       </c>
       <c r="F48">
         <v>0.9696502808966706</v>
@@ -2033,16 +2033,16 @@
         <v>44271</v>
       </c>
       <c r="B49">
+        <v>0.9092189838865898</v>
+      </c>
+      <c r="C49">
         <v>1.068246913580247</v>
       </c>
-      <c r="C49">
-        <v>0.9092189838865898</v>
-      </c>
       <c r="D49">
-        <v>0.8906691800188501</v>
+        <v>0.8906472151820487</v>
       </c>
       <c r="E49">
-        <v>0.9571670447060792</v>
+        <v>0.9555695170129981</v>
       </c>
       <c r="F49">
         <v>0.9730065916875945</v>
@@ -2056,16 +2056,16 @@
         <v>44272</v>
       </c>
       <c r="B50">
+        <v>0.9246279827419214</v>
+      </c>
+      <c r="C50">
         <v>1.074172839506173</v>
       </c>
-      <c r="C50">
-        <v>0.9246279827419214</v>
-      </c>
       <c r="D50">
-        <v>0.9123468426013195</v>
+        <v>0.912344686901156</v>
       </c>
       <c r="E50">
-        <v>0.9714204577953682</v>
+        <v>0.9699242978466719</v>
       </c>
       <c r="F50">
         <v>0.9777371523344186</v>
@@ -2079,16 +2079,16 @@
         <v>44273</v>
       </c>
       <c r="B51">
+        <v>0.9405652901294357</v>
+      </c>
+      <c r="C51">
         <v>1.074271604938271</v>
       </c>
-      <c r="C51">
-        <v>0.9405652901294357</v>
-      </c>
       <c r="D51">
-        <v>0.9132893496701224</v>
+        <v>0.9132719292823145</v>
       </c>
       <c r="E51">
-        <v>0.9770243768128666</v>
+        <v>0.9756815649368016</v>
       </c>
       <c r="F51">
         <v>0.9853544229642648</v>
@@ -2102,16 +2102,16 @@
         <v>44274</v>
       </c>
       <c r="B52">
+        <v>0.9163804995450676</v>
+      </c>
+      <c r="C52">
         <v>1.053037037037037</v>
       </c>
-      <c r="C52">
-        <v>0.9163804995450676</v>
-      </c>
       <c r="D52">
-        <v>0.8850141376060321</v>
+        <v>0.8849601285776102</v>
       </c>
       <c r="E52">
-        <v>0.9524928228524556</v>
+        <v>0.9511084344981569</v>
       </c>
       <c r="F52">
         <v>0.9747907606433689</v>
@@ -2125,16 +2125,16 @@
         <v>44277</v>
       </c>
       <c r="B53">
+        <v>0.9197851545302457</v>
+      </c>
+      <c r="C53">
         <v>1.056493827160494</v>
       </c>
-      <c r="C53">
-        <v>0.9197851545302457</v>
-      </c>
       <c r="D53">
-        <v>0.8963242224316682</v>
+        <v>0.8962724856277431</v>
       </c>
       <c r="E53">
-        <v>0.9585239956319996</v>
+        <v>0.9571398357604018</v>
       </c>
       <c r="F53">
         <v>0.9903535512972134</v>
@@ -2148,16 +2148,16 @@
         <v>44278</v>
       </c>
       <c r="B54">
+        <v>0.9179947756156263</v>
+      </c>
+      <c r="C54">
         <v>1.01758024691358</v>
       </c>
-      <c r="C54">
-        <v>0.9179947756156263</v>
-      </c>
       <c r="D54">
-        <v>0.8671065032987748</v>
+        <v>0.8670952587006244</v>
       </c>
       <c r="E54">
-        <v>0.9350607059923697</v>
+        <v>0.9340611405620005</v>
       </c>
       <c r="F54">
         <v>0.9767649687220733</v>
@@ -2171,16 +2171,16 @@
         <v>44279</v>
       </c>
       <c r="B55">
+        <v>0.9127410407678084</v>
+      </c>
+      <c r="C55">
         <v>0.977283950617284</v>
       </c>
-      <c r="C55">
-        <v>0.9127410407678084</v>
-      </c>
       <c r="D55">
-        <v>0.8435438265786994</v>
+        <v>0.8435433022192002</v>
       </c>
       <c r="E55">
-        <v>0.9118505494342242</v>
+        <v>0.9112049472970947</v>
       </c>
       <c r="F55">
         <v>0.9647296811269164</v>
@@ -2194,16 +2194,16 @@
         <v>44280</v>
       </c>
       <c r="B56">
+        <v>0.9112441665932904</v>
+      </c>
+      <c r="C56">
         <v>0.9830123456790123</v>
       </c>
-      <c r="C56">
-        <v>0.9112441665932904</v>
-      </c>
       <c r="D56">
-        <v>0.8576814326107447</v>
+        <v>0.8576373864128083</v>
       </c>
       <c r="E56">
-        <v>0.9179696452681958</v>
+        <v>0.9172374282320197</v>
       </c>
       <c r="F56">
         <v>0.9670651205963146</v>
@@ -2217,16 +2217,16 @@
         <v>44281</v>
       </c>
       <c r="B57">
+        <v>0.930615479439993</v>
+      </c>
+      <c r="C57">
         <v>1.015012345679013</v>
       </c>
-      <c r="C57">
-        <v>0.930615479439993</v>
-      </c>
       <c r="D57">
-        <v>0.8934967012252591</v>
+        <v>0.8934907584842678</v>
       </c>
       <c r="E57">
-        <v>0.9470612171503976</v>
+        <v>0.9462152873834802</v>
       </c>
       <c r="F57">
         <v>0.9818881721848689</v>
@@ -2240,16 +2240,16 @@
         <v>44284</v>
       </c>
       <c r="B58">
+        <v>0.9376889436764404</v>
+      </c>
+      <c r="C58">
         <v>1.011950617283951</v>
       </c>
-      <c r="C58">
-        <v>0.9376889436764404</v>
-      </c>
       <c r="D58">
-        <v>0.8821866163996231</v>
+        <v>0.882178401434135</v>
       </c>
       <c r="E58">
-        <v>0.9446221447016443</v>
+        <v>0.943876817026958</v>
       </c>
       <c r="F58">
         <v>0.9823829021329928</v>
@@ -2263,16 +2263,16 @@
         <v>44285</v>
       </c>
       <c r="B59">
+        <v>0.9466408382495377</v>
+      </c>
+      <c r="C59">
         <v>1.025185185185185</v>
       </c>
-      <c r="C59">
-        <v>0.9466408382495377</v>
-      </c>
       <c r="D59">
-        <v>0.8925541941564561</v>
+        <v>0.8925016999443655</v>
       </c>
       <c r="E59">
-        <v>0.955497323656941</v>
+        <v>0.9546945570975947</v>
       </c>
       <c r="F59">
         <v>0.9863752942857905</v>
@@ -2286,16 +2286,16 @@
         <v>44286</v>
       </c>
       <c r="B60">
+        <v>0.9374541398843592</v>
+      </c>
+      <c r="C60">
         <v>1.002074074074074</v>
       </c>
-      <c r="C60">
-        <v>0.9374541398843592</v>
-      </c>
       <c r="D60">
-        <v>0.8812441093308201</v>
+        <v>0.8811893428942326</v>
       </c>
       <c r="E60">
-        <v>0.9408756074261946</v>
+        <v>0.9402113351602234</v>
       </c>
       <c r="F60">
         <v>0.9822462624330348</v>
@@ -2309,16 +2309,16 @@
         <v>44287</v>
       </c>
       <c r="B61">
+        <v>0.9519532740453759</v>
+      </c>
+      <c r="C61">
         <v>1.010469135802469</v>
       </c>
-      <c r="C61">
-        <v>0.9519532740453759</v>
-      </c>
       <c r="D61">
-        <v>0.8982092365692743</v>
+        <v>0.898188786548804</v>
       </c>
       <c r="E61">
-        <v>0.9541131346756742</v>
+        <v>0.9535212275513479</v>
       </c>
       <c r="F61">
         <v>0.9912911823417532</v>
@@ -2332,16 +2332,16 @@
         <v>44288</v>
       </c>
       <c r="B62">
+        <v>0.9774294854861907</v>
+      </c>
+      <c r="C62">
         <v>1.018666666666667</v>
       </c>
-      <c r="C62">
-        <v>0.9774294854861907</v>
-      </c>
       <c r="D62">
-        <v>0.9095193213949105</v>
+        <v>0.9095011435989369</v>
       </c>
       <c r="E62">
-        <v>0.96903977293743</v>
+        <v>0.968621402452954</v>
       </c>
       <c r="F62">
         <v>0.9936391863812625</v>
@@ -2355,16 +2355,16 @@
         <v>44292</v>
       </c>
       <c r="B63">
+        <v>0.969358105133398</v>
+      </c>
+      <c r="C63">
         <v>1.024</v>
       </c>
-      <c r="C63">
-        <v>0.969358105133398</v>
-      </c>
       <c r="D63">
-        <v>0.9142318567389255</v>
+        <v>0.914199171663473</v>
       </c>
       <c r="E63">
-        <v>0.9697446874178668</v>
+        <v>0.9691874823943014</v>
       </c>
       <c r="F63">
         <v>0.9962290583954103</v>
@@ -2378,16 +2378,16 @@
         <v>44293</v>
       </c>
       <c r="B64">
+        <v>0.9474920019958324</v>
+      </c>
+      <c r="C64">
         <v>1.035654320987654</v>
       </c>
-      <c r="C64">
-        <v>0.9474920019958324</v>
-      </c>
       <c r="D64">
-        <v>0.9085768143261075</v>
+        <v>0.9085739012177784</v>
       </c>
       <c r="E64">
-        <v>0.9646251785220427</v>
+        <v>0.963742594006376</v>
       </c>
       <c r="F64">
         <v>0.9970112028848254</v>
@@ -2401,16 +2401,16 @@
         <v>44294</v>
       </c>
       <c r="B65">
+        <v>0.9584984297496405</v>
+      </c>
+      <c r="C65">
         <v>1.048098765432099</v>
       </c>
-      <c r="C65">
-        <v>0.9584984297496405</v>
-      </c>
       <c r="D65">
-        <v>0.9038642789820923</v>
+        <v>0.9038140569944983</v>
       </c>
       <c r="E65">
-        <v>0.9709332741283855</v>
+        <v>0.9700206975156549</v>
       </c>
       <c r="F65">
         <v>0.9983728881706143</v>
@@ -2424,16 +2424,16 @@
         <v>44295</v>
       </c>
       <c r="B66">
+        <v>0.9408000939215169</v>
+      </c>
+      <c r="C66">
         <v>1.045728395061728</v>
       </c>
-      <c r="C66">
-        <v>0.9408000939215169</v>
-      </c>
       <c r="D66">
-        <v>0.8906691800188501</v>
+        <v>0.8906472151820487</v>
       </c>
       <c r="E66">
-        <v>0.9599325147213088</v>
+        <v>0.9588759833137623</v>
       </c>
       <c r="F66">
         <v>0.9949945893819959</v>
@@ -2447,16 +2447,16 @@
         <v>44298</v>
       </c>
       <c r="B67">
+        <v>0.9315840450823281</v>
+      </c>
+      <c r="C67">
         <v>1.004543209876543</v>
       </c>
-      <c r="C67">
-        <v>0.9315840450823281</v>
-      </c>
       <c r="D67">
-        <v>0.8633364750235627</v>
+        <v>0.8633244730172468</v>
       </c>
       <c r="E67">
-        <v>0.9338684629929688</v>
+        <v>0.9331349106829423</v>
       </c>
       <c r="F67">
         <v>0.9779036328883906</v>
@@ -2470,16 +2470,16 @@
         <v>44299</v>
       </c>
       <c r="B68">
+        <v>0.939684775909131</v>
+      </c>
+      <c r="C68">
         <v>0.9978271604938271</v>
       </c>
-      <c r="C68">
-        <v>0.939684775909131</v>
-      </c>
       <c r="D68">
-        <v>0.8671065032987748</v>
+        <v>0.8670952587006244</v>
       </c>
       <c r="E68">
-        <v>0.9355023567065102</v>
+        <v>0.9349172221432736</v>
       </c>
       <c r="F68">
         <v>0.9752902023052845</v>
@@ -2493,16 +2493,16 @@
         <v>44300</v>
       </c>
       <c r="B69">
+        <v>0.9444982536467964</v>
+      </c>
+      <c r="C69">
         <v>1.020246913580247</v>
       </c>
-      <c r="C69">
-        <v>0.9444982536467964</v>
-      </c>
       <c r="D69">
-        <v>0.9038642789820923</v>
+        <v>0.9038140569944983</v>
       </c>
       <c r="E69">
-        <v>0.9568435863848173</v>
+        <v>0.9560695265295768</v>
       </c>
       <c r="F69">
         <v>0.9858805643376666</v>
@@ -2516,16 +2516,16 @@
         <v>44301</v>
       </c>
       <c r="B70">
+        <v>0.9376889436764404</v>
+      </c>
+      <c r="C70">
         <v>1.035358024691358</v>
       </c>
-      <c r="C70">
-        <v>0.9376889436764404</v>
-      </c>
       <c r="D70">
-        <v>0.9038642789820923</v>
+        <v>0.9038140569944983</v>
       </c>
       <c r="E70">
-        <v>0.9597342918723776</v>
+        <v>0.9587410278063224</v>
       </c>
       <c r="F70">
         <v>0.9857627714928752</v>
@@ -2539,16 +2539,16 @@
         <v>44302</v>
       </c>
       <c r="B71">
+        <v>0.9434709870564411</v>
+      </c>
+      <c r="C71">
         <v>1.029827160493827</v>
       </c>
-      <c r="C71">
-        <v>0.9434709870564411</v>
-      </c>
       <c r="D71">
-        <v>0.9029217719132893</v>
+        <v>0.9028868146133399</v>
       </c>
       <c r="E71">
-        <v>0.9594508450279122</v>
+        <v>0.9585757473845551</v>
       </c>
       <c r="F71">
         <v>0.9956777878817863</v>
@@ -2562,16 +2562,16 @@
         <v>44305</v>
       </c>
       <c r="B72">
+        <v>0.9591734906518741</v>
+      </c>
+      <c r="C72">
         <v>1.066666666666667</v>
       </c>
-      <c r="C72">
-        <v>0.9591734906518741</v>
-      </c>
       <c r="D72">
-        <v>0.9557021677662583</v>
+        <v>0.9556778141806269</v>
       </c>
       <c r="E72">
-        <v>0.9945756339446505</v>
+        <v>0.9934926655012442</v>
       </c>
       <c r="F72">
         <v>1.009132871899496</v>
@@ -2585,16 +2585,16 @@
         <v>44306</v>
       </c>
       <c r="B73">
+        <v>0.9685362918611137</v>
+      </c>
+      <c r="C73">
         <v>1.057086419753086</v>
       </c>
-      <c r="C73">
-        <v>0.9685362918611137</v>
-      </c>
       <c r="D73">
-        <v>0.9509896324222431</v>
+        <v>0.9509797861160908</v>
       </c>
       <c r="E73">
-        <v>0.9928529377295572</v>
+        <v>0.9919641871696072</v>
       </c>
       <c r="F73">
         <v>1.009648019274051</v>
@@ -2608,16 +2608,16 @@
         <v>44307</v>
       </c>
       <c r="B74">
+        <v>0.9749933961433477</v>
+      </c>
+      <c r="C74">
         <v>1.049876543209876</v>
       </c>
-      <c r="C74">
-        <v>0.9749933961433477</v>
-      </c>
       <c r="D74">
-        <v>0.9509896324222431</v>
+        <v>0.9509797861160908</v>
       </c>
       <c r="E74">
-        <v>0.9925324241180029</v>
+        <v>0.9917803433663075</v>
       </c>
       <c r="F74">
         <v>1.008347586267553</v>
@@ -2631,16 +2631,16 @@
         <v>44308</v>
       </c>
       <c r="B75">
+        <v>0.97349652196883</v>
+      </c>
+      <c r="C75">
         <v>1.054024691358025</v>
       </c>
-      <c r="C75">
-        <v>0.97349652196883</v>
-      </c>
       <c r="D75">
-        <v>0.9528746465598491</v>
+        <v>0.9528342708784078</v>
       </c>
       <c r="E75">
-        <v>0.9940708806761926</v>
+        <v>0.9932522750074251</v>
       </c>
       <c r="F75">
         <v>1.012306996423809</v>
@@ -2654,16 +2654,16 @@
         <v>44309</v>
       </c>
       <c r="B76">
+        <v>0.9871151419095419</v>
+      </c>
+      <c r="C76">
         <v>1.065086419753086</v>
       </c>
-      <c r="C76">
-        <v>0.9871151419095419</v>
-      </c>
       <c r="D76">
-        <v>0.9641847313854853</v>
+        <v>0.9641466279285407</v>
       </c>
       <c r="E76">
-        <v>1.006058340903409</v>
+        <v>1.005266053984181</v>
       </c>
       <c r="F76">
         <v>1.015022514139068</v>
@@ -2677,16 +2677,16 @@
         <v>44312</v>
       </c>
       <c r="B77">
+        <v>0.968418889965073</v>
+      </c>
+      <c r="C77">
         <v>1.072987654320988</v>
       </c>
-      <c r="C77">
-        <v>0.968418889965073</v>
-      </c>
       <c r="D77">
-        <v>0.9547596606974551</v>
+        <v>0.9547505717994684</v>
       </c>
       <c r="E77">
-        <v>0.9994647241877701</v>
+        <v>0.9984160372078754</v>
       </c>
       <c r="F77">
         <v>1.011864095327393</v>
@@ -2700,16 +2700,16 @@
         <v>44313</v>
       </c>
       <c r="B78">
+        <v>0.9759326113116727</v>
+      </c>
+      <c r="C78">
         <v>1.075259259259259</v>
       </c>
-      <c r="C78">
-        <v>0.9759326113116727</v>
-      </c>
       <c r="D78">
-        <v>0.945334590009425</v>
+        <v>0.9452926995116523</v>
       </c>
       <c r="E78">
-        <v>0.9996063245841105</v>
+        <v>0.9985992342403696</v>
       </c>
       <c r="F78">
         <v>1.012434212696184</v>
@@ -2723,16 +2723,16 @@
         <v>44314</v>
       </c>
       <c r="B79">
+        <v>0.9839746411904553</v>
+      </c>
+      <c r="C79">
         <v>1.075654320987654</v>
       </c>
-      <c r="C79">
-        <v>0.9839746411904553</v>
-      </c>
       <c r="D79">
-        <v>0.9679547596606973</v>
+        <v>0.9679174136119183</v>
       </c>
       <c r="E79">
-        <v>1.009859171416683</v>
+        <v>1.008930050422614</v>
       </c>
       <c r="F79">
         <v>1.019259915409032</v>
@@ -2746,16 +2746,16 @@
         <v>44315</v>
       </c>
       <c r="B80">
+        <v>0.9995010419418274</v>
+      </c>
+      <c r="C80">
         <v>1.085530864197531</v>
       </c>
-      <c r="C80">
-        <v>0.9995010419418274</v>
-      </c>
       <c r="D80">
-        <v>0.9651272384542884</v>
+        <v>0.9650738703096989</v>
       </c>
       <c r="E80">
-        <v>1.017407826357879</v>
+        <v>1.016529916647607</v>
       </c>
       <c r="F80">
         <v>1.019603870515823</v>
@@ -2769,16 +2769,16 @@
         <v>44316</v>
       </c>
       <c r="B81">
+        <v>0.992251474861319</v>
+      </c>
+      <c r="C81">
         <v>1.083358024691358</v>
       </c>
-      <c r="C81">
-        <v>0.992251474861319</v>
-      </c>
       <c r="D81">
-        <v>0.9839773798303488</v>
+        <v>0.9839277987265871</v>
       </c>
       <c r="E81">
-        <v>1.020497250443312</v>
+        <v>1.01956982318077</v>
       </c>
       <c r="F81">
         <v>1.018626975189686</v>
@@ -2792,16 +2792,16 @@
         <v>44322</v>
       </c>
       <c r="B82">
+        <v>0.9657186463561387</v>
+      </c>
+      <c r="C82">
         <v>1.109135802469136</v>
       </c>
-      <c r="C82">
-        <v>0.9657186463561387</v>
-      </c>
       <c r="D82">
-        <v>0.9764373232799246</v>
+        <v>0.9763862273598318</v>
       </c>
       <c r="E82">
-        <v>1.018017642819407</v>
+        <v>1.016566609604647</v>
       </c>
       <c r="F82">
         <v>1.01919866312974</v>
@@ -2815,16 +2815,16 @@
         <v>44323</v>
       </c>
       <c r="B83">
+        <v>0.953127293005782</v>
+      </c>
+      <c r="C83">
         <v>1.136987654320988</v>
       </c>
-      <c r="C83">
-        <v>0.953127293005782</v>
-      </c>
       <c r="D83">
-        <v>0.9500471253534402</v>
+        <v>0.9499907275761884</v>
       </c>
       <c r="E83">
-        <v>1.014623360527679</v>
+        <v>1.012766145648034</v>
       </c>
       <c r="F83">
         <v>1.012145227583629</v>
@@ -2838,16 +2838,16 @@
         <v>44326</v>
       </c>
       <c r="B84">
+        <v>0.9364268732940038</v>
+      </c>
+      <c r="C84">
         <v>1.191012345679012</v>
       </c>
-      <c r="C84">
-        <v>0.9364268732940038</v>
-      </c>
       <c r="D84">
-        <v>0.9547596606974551</v>
+        <v>0.9547505717994684</v>
       </c>
       <c r="E84">
-        <v>1.029035753748046</v>
+        <v>1.02648689968786</v>
       </c>
       <c r="F84">
         <v>1.017100379921189</v>
@@ -2861,16 +2861,16 @@
         <v>44327</v>
       </c>
       <c r="B85">
+        <v>0.9588212849637522</v>
+      </c>
+      <c r="C85">
         <v>1.144296296296296</v>
       </c>
-      <c r="C85">
-        <v>0.9588212849637522</v>
-      </c>
       <c r="D85">
-        <v>0.9387370405278039</v>
+        <v>0.9387401866847994</v>
       </c>
       <c r="E85">
-        <v>1.015254988152954</v>
+        <v>1.013401276271438</v>
       </c>
       <c r="F85">
         <v>1.013967090249737</v>
@@ -2884,16 +2884,16 @@
         <v>44328</v>
       </c>
       <c r="B86">
+        <v>0.9696516098734995</v>
+      </c>
+      <c r="C86">
         <v>1.149432098765432</v>
       </c>
-      <c r="C86">
-        <v>0.9696516098734995</v>
-      </c>
       <c r="D86">
-        <v>0.942507068803016</v>
+        <v>0.9424491562094331</v>
       </c>
       <c r="E86">
-        <v>1.021819277543497</v>
+        <v>1.020002361498695</v>
       </c>
       <c r="F86">
         <v>1.022763859898761</v>
@@ -2907,16 +2907,16 @@
         <v>44329</v>
       </c>
       <c r="B87">
+        <v>0.9675677262187785</v>
+      </c>
+      <c r="C87">
         <v>1.095111111111111</v>
       </c>
-      <c r="C87">
-        <v>0.9675677262187785</v>
-      </c>
       <c r="D87">
-        <v>0.9236569274269556</v>
+        <v>0.9236570439512889</v>
       </c>
       <c r="E87">
-        <v>0.9964419134808702</v>
+        <v>0.9951665180849767</v>
       </c>
       <c r="F87">
         <v>1.011295548529867</v>
@@ -2930,16 +2930,16 @@
         <v>44330</v>
       </c>
       <c r="B88">
+        <v>0.9831821783921811</v>
+      </c>
+      <c r="C88">
         <v>1.100246913580247</v>
       </c>
-      <c r="C88">
-        <v>0.9831821783921811</v>
-      </c>
       <c r="D88">
-        <v>0.9519321394910462</v>
+        <v>0.9519070284972493</v>
       </c>
       <c r="E88">
-        <v>1.012671675518749</v>
+        <v>1.011492741538915</v>
       </c>
       <c r="F88">
         <v>1.024923395386604</v>
@@ -2953,16 +2953,16 @@
         <v>44333</v>
       </c>
       <c r="B89">
+        <v>1.003169851193097</v>
+      </c>
+      <c r="C89">
         <v>1.13037037037037</v>
       </c>
-      <c r="C89">
-        <v>1.003169851193097</v>
-      </c>
       <c r="D89">
-        <v>0.9924599434495758</v>
+        <v>0.9924584286332447</v>
       </c>
       <c r="E89">
-        <v>1.042883758158008</v>
+        <v>1.041611253076846</v>
       </c>
       <c r="F89">
         <v>1.033143765381782</v>
@@ -2976,16 +2976,16 @@
         <v>44334</v>
       </c>
       <c r="B90">
+        <v>1.001203369434416</v>
+      </c>
+      <c r="C90">
         <v>1.144098765432099</v>
       </c>
-      <c r="C90">
-        <v>1.001203369434416</v>
-      </c>
       <c r="D90">
-        <v>0.9934024505183789</v>
+        <v>0.9933856710144032</v>
       </c>
       <c r="E90">
-        <v>1.047213500831336</v>
+        <v>1.045779009635047</v>
       </c>
       <c r="F90">
         <v>1.036514211314081</v>
@@ -2999,16 +2999,16 @@
         <v>44335</v>
       </c>
       <c r="B91">
+        <v>0.9963018402747205</v>
+      </c>
+      <c r="C91">
         <v>1.150123456790124</v>
       </c>
-      <c r="C91">
-        <v>0.9963018402747205</v>
-      </c>
       <c r="D91">
-        <v>1.026390197926484</v>
+        <v>1.0263336836249</v>
       </c>
       <c r="E91">
-        <v>1.05853034791504</v>
+        <v>1.056973482030363</v>
       </c>
       <c r="F91">
         <v>1.034125372421711</v>
@@ -3022,16 +3022,16 @@
         <v>44336</v>
       </c>
       <c r="B92">
+        <v>1.007044113762437</v>
+      </c>
+      <c r="C92">
         <v>1.117037037037037</v>
       </c>
-      <c r="C92">
-        <v>1.007044113762437</v>
-      </c>
       <c r="D92">
-        <v>1.032045240339303</v>
+        <v>1.032020770229338</v>
       </c>
       <c r="E92">
-        <v>1.052692079446167</v>
+        <v>1.051584075077133</v>
       </c>
       <c r="F92">
         <v>1.028521574152166</v>
@@ -3045,16 +3045,16 @@
         <v>44337</v>
       </c>
       <c r="B93">
+        <v>0.9989433829356346</v>
+      </c>
+      <c r="C93">
         <v>1.123061728395062</v>
       </c>
-      <c r="C93">
-        <v>0.9989433829356346</v>
-      </c>
       <c r="D93">
-        <v>1.027332704995288</v>
+        <v>1.027322742164802</v>
       </c>
       <c r="E93">
-        <v>1.050512096671525</v>
+        <v>1.049267625482871</v>
       </c>
       <c r="F93">
         <v>1.025246933066964</v>
@@ -3068,16 +3068,16 @@
         <v>44340</v>
       </c>
       <c r="B94">
+        <v>1.006339702386194</v>
+      </c>
+      <c r="C94">
         <v>1.115358024691358</v>
       </c>
-      <c r="C94">
-        <v>1.006339702386194</v>
-      </c>
       <c r="D94">
-        <v>1.02827521206409</v>
+        <v>1.02824998454596</v>
       </c>
       <c r="E94">
-        <v>1.050644650163655</v>
+        <v>1.049546141859621</v>
       </c>
       <c r="F94">
         <v>1.027800681942043</v>
@@ -3091,16 +3091,16 @@
         <v>44341</v>
       </c>
       <c r="B95">
+        <v>1.037363153414928</v>
+      </c>
+      <c r="C95">
         <v>1.124345679012346</v>
       </c>
-      <c r="C95">
-        <v>1.037363153414928</v>
-      </c>
       <c r="D95">
-        <v>1.037700282752121</v>
+        <v>1.037646040675033</v>
       </c>
       <c r="E95">
-        <v>1.067048464799324</v>
+        <v>1.06616073965791</v>
       </c>
       <c r="F95">
         <v>1.0396663478407</v>
@@ -3114,16 +3114,16 @@
         <v>44342</v>
       </c>
       <c r="B96">
+        <v>1.032314871885181</v>
+      </c>
+      <c r="C96">
         <v>1.134123456790123</v>
       </c>
-      <c r="C96">
-        <v>1.032314871885181</v>
-      </c>
       <c r="D96">
-        <v>1.032045240339303</v>
+        <v>1.032020770229338</v>
       </c>
       <c r="E96">
-        <v>1.066840812342722</v>
+        <v>1.065814651357384</v>
       </c>
       <c r="F96">
         <v>1.041007615700059</v>
@@ -3137,16 +3137,16 @@
         <v>44343</v>
       </c>
       <c r="B97">
+        <v>1.033518241319597</v>
+      </c>
+      <c r="C97">
         <v>1.134320987654321</v>
       </c>
-      <c r="C97">
-        <v>1.033518241319597</v>
-      </c>
       <c r="D97">
-        <v>1.036757775683318</v>
+        <v>1.036718798293874</v>
       </c>
       <c r="E97">
-        <v>1.068860221413431</v>
+        <v>1.067839331411568</v>
       </c>
       <c r="F97">
         <v>1.049991283329486</v>
@@ -3160,16 +3160,16 @@
         <v>44344</v>
       </c>
       <c r="B98">
+        <v>1.026855683719292</v>
+      </c>
+      <c r="C98">
         <v>1.150913580246914</v>
       </c>
-      <c r="C98">
-        <v>1.026855683719292</v>
-      </c>
       <c r="D98">
-        <v>1.079170593779453</v>
+        <v>1.079124683192187</v>
       </c>
       <c r="E98">
-        <v>1.086299288858537</v>
+        <v>1.085043559399463</v>
       </c>
       <c r="F98">
         <v>1.047283618470546</v>
@@ -3183,16 +3183,16 @@
         <v>44347</v>
       </c>
       <c r="B99">
+        <v>1.027530744621526</v>
+      </c>
+      <c r="C99">
         <v>1.181432098765432</v>
       </c>
-      <c r="C99">
-        <v>1.027530744621526</v>
-      </c>
       <c r="D99">
-        <v>1.130065975494816</v>
+        <v>1.130061197997157</v>
       </c>
       <c r="E99">
-        <v>1.11369383121864</v>
+        <v>1.112153241102973</v>
       </c>
       <c r="F99">
         <v>1.0568358328975</v>
@@ -3206,16 +3206,16 @@
         <v>44348</v>
       </c>
       <c r="B100">
+        <v>1.03401719937777</v>
+      </c>
+      <c r="C100">
         <v>1.183111111111111</v>
       </c>
-      <c r="C100">
-        <v>1.03401719937777</v>
-      </c>
       <c r="D100">
-        <v>1.116870876531574</v>
+        <v>1.116832540025963</v>
       </c>
       <c r="E100">
-        <v>1.112050842827861</v>
+        <v>1.110547252663676</v>
       </c>
       <c r="F100">
         <v>1.058527338148705</v>
@@ -3229,16 +3229,16 @@
         <v>44349</v>
       </c>
       <c r="B101">
+        <v>1.025564262862845</v>
+      </c>
+      <c r="C101">
         <v>1.166716049382716</v>
       </c>
-      <c r="C101">
-        <v>1.025564262862845</v>
-      </c>
       <c r="D101">
-        <v>1.111215834118756</v>
+        <v>1.111207269580268</v>
       </c>
       <c r="E101">
-        <v>1.101820888794052</v>
+        <v>1.100406544631152</v>
       </c>
       <c r="F101">
         <v>1.049366195966459</v>
@@ -3252,16 +3252,16 @@
         <v>44350</v>
       </c>
       <c r="B102">
+        <v>1.027560095095536</v>
+      </c>
+      <c r="C102">
         <v>1.167012345679012</v>
       </c>
-      <c r="C102">
-        <v>1.027560095095536</v>
-      </c>
       <c r="D102">
-        <v>1.106503298774741</v>
+        <v>1.106447425356988</v>
       </c>
       <c r="E102">
-        <v>1.101025117508056</v>
+        <v>1.099612156774363</v>
       </c>
       <c r="F102">
         <v>1.047214513334935</v>
@@ -3275,16 +3275,16 @@
         <v>44351</v>
       </c>
       <c r="B103">
+        <v>1.036482639194623</v>
+      </c>
+      <c r="C103">
         <v>1.163654320987654</v>
       </c>
-      <c r="C103">
-        <v>1.036482639194623</v>
-      </c>
       <c r="D103">
-        <v>1.133836003770028</v>
+        <v>1.133831983680534</v>
       </c>
       <c r="E103">
-        <v>1.111847621314138</v>
+        <v>1.110574577866674</v>
       </c>
       <c r="F103">
         <v>1.051192770346358</v>
@@ -3298,16 +3298,16 @@
         <v>44354</v>
       </c>
       <c r="B104">
+        <v>1.03210941856711</v>
+      </c>
+      <c r="C104">
         <v>1.158617283950617</v>
       </c>
-      <c r="C104">
-        <v>1.03210941856711</v>
-      </c>
       <c r="D104">
-        <v>1.113100848256362</v>
+        <v>1.113061754342585</v>
       </c>
       <c r="E104">
-        <v>1.101849264594956</v>
+        <v>1.100571284949574</v>
       </c>
       <c r="F104">
         <v>1.055659475020849</v>
@@ -3321,16 +3321,16 @@
         <v>44355</v>
       </c>
       <c r="B105">
+        <v>1.001350121804467</v>
+      </c>
+      <c r="C105">
         <v>1.133333333333333</v>
       </c>
-      <c r="C105">
-        <v>1.001350121804467</v>
-      </c>
       <c r="D105">
-        <v>1.105560791705938</v>
+        <v>1.10552018297583</v>
       </c>
       <c r="E105">
-        <v>1.080613934791767</v>
+        <v>1.079280701795543</v>
       </c>
       <c r="F105">
         <v>1.049857784772055</v>
@@ -3344,16 +3344,16 @@
         <v>44356</v>
       </c>
       <c r="B106">
+        <v>1.006310351912183</v>
+      </c>
+      <c r="C106">
         <v>1.13679012345679</v>
       </c>
-      <c r="C106">
-        <v>1.006310351912183</v>
-      </c>
       <c r="D106">
-        <v>1.103675777568332</v>
+        <v>1.103665698213513</v>
       </c>
       <c r="E106">
-        <v>1.082804064703879</v>
+        <v>1.081495940801342</v>
       </c>
       <c r="F106">
         <v>1.051167641206136</v>
@@ -3367,16 +3367,16 @@
         <v>44357</v>
       </c>
       <c r="B107">
+        <v>1.012180446714214</v>
+      </c>
+      <c r="C107">
         <v>1.141728395061728</v>
       </c>
-      <c r="C107">
-        <v>1.012180446714214</v>
-      </c>
       <c r="D107">
-        <v>1.141376060320452</v>
+        <v>1.141311738888546</v>
       </c>
       <c r="E107">
-        <v>1.098861301642428</v>
+        <v>1.097544596086423</v>
       </c>
       <c r="F107">
         <v>1.062591976579641</v>
@@ -3390,16 +3390,16 @@
         <v>44358</v>
       </c>
       <c r="B108">
+        <v>0.9930439376595932</v>
+      </c>
+      <c r="C108">
         <v>1.142617283950617</v>
       </c>
-      <c r="C108">
-        <v>0.9930439376595932</v>
-      </c>
       <c r="D108">
-        <v>1.152686145146089</v>
+        <v>1.152624095938678</v>
       </c>
       <c r="E108">
-        <v>1.096580803869085</v>
+        <v>1.095064594167729</v>
       </c>
       <c r="F108">
         <v>1.056353667519487</v>
@@ -3413,16 +3413,16 @@
         <v>44362</v>
       </c>
       <c r="B109">
+        <v>0.9857943705790848</v>
+      </c>
+      <c r="C109">
         <v>1.103506172839506</v>
       </c>
-      <c r="C109">
-        <v>0.9857943705790848</v>
-      </c>
       <c r="D109">
-        <v>1.144203581526861</v>
+        <v>1.144155282190765</v>
       </c>
       <c r="E109">
-        <v>1.078091422960394</v>
+        <v>1.076898366156878</v>
       </c>
       <c r="F109">
         <v>1.046575290830534</v>
@@ -3436,16 +3436,16 @@
         <v>44363</v>
       </c>
       <c r="B110">
+        <v>0.9784274016025359</v>
+      </c>
+      <c r="C110">
         <v>1.05679012345679</v>
       </c>
-      <c r="C110">
-        <v>0.9784274016025359</v>
-      </c>
       <c r="D110">
-        <v>1.076343072573044</v>
+        <v>1.076281139889967</v>
       </c>
       <c r="E110">
-        <v>1.03738289845325</v>
+        <v>1.036578833449292</v>
       </c>
       <c r="F110">
         <v>1.031282638434078</v>
@@ -3459,16 +3459,16 @@
         <v>44364</v>
       </c>
       <c r="B111">
+        <v>0.982037509905785</v>
+      </c>
+      <c r="C111">
         <v>1.061037037037037</v>
       </c>
-      <c r="C111">
-        <v>0.982037509905785</v>
-      </c>
       <c r="D111">
-        <v>1.105560791705938</v>
+        <v>1.10552018297583</v>
       </c>
       <c r="E111">
-        <v>1.049660032124461</v>
+        <v>1.048856635972213</v>
       </c>
       <c r="F111">
         <v>1.03911664789834</v>
@@ -3482,16 +3482,16 @@
         <v>44365</v>
       </c>
       <c r="B112">
+        <v>0.9696809603475096</v>
+      </c>
+      <c r="C112">
         <v>1.078617283950617</v>
       </c>
-      <c r="C112">
-        <v>0.9696809603475096</v>
-      </c>
       <c r="D112">
-        <v>1.152686145146089</v>
+        <v>1.152624095938678</v>
       </c>
       <c r="E112">
-        <v>1.067111021356097</v>
+        <v>1.066001181881621</v>
       </c>
       <c r="F112">
         <v>1.045648653784841</v>
@@ -3505,16 +3505,16 @@
         <v>44368</v>
       </c>
       <c r="B113">
+        <v>0.9600246543981686</v>
+      </c>
+      <c r="C113">
         <v>1.07358024691358</v>
       </c>
-      <c r="C113">
-        <v>0.9600246543981686</v>
-      </c>
       <c r="D113">
-        <v>1.157398680490104</v>
+        <v>1.157383940161958</v>
       </c>
       <c r="E113">
-        <v>1.063766984463747</v>
+        <v>1.062626564230305</v>
       </c>
       <c r="F113">
         <v>1.053410416970965</v>
@@ -3528,16 +3528,16 @@
         <v>44369</v>
       </c>
       <c r="B114">
+        <v>0.9653370901940067</v>
+      </c>
+      <c r="C114">
         <v>1.079407407407407</v>
       </c>
-      <c r="C114">
-        <v>0.9653370901940067</v>
-      </c>
       <c r="D114">
-        <v>1.161168708765316</v>
+        <v>1.161154725845336</v>
       </c>
       <c r="E114">
-        <v>1.068745432175095</v>
+        <v>1.067600114639368</v>
       </c>
       <c r="F114">
         <v>1.058532049862497</v>
@@ -3551,16 +3551,16 @@
         <v>44370</v>
       </c>
       <c r="B115">
+        <v>0.9529511901617211</v>
+      </c>
+      <c r="C115">
         <v>1.096691358024692</v>
       </c>
-      <c r="C115">
-        <v>0.9529511901617211</v>
-      </c>
       <c r="D115">
-        <v>1.190386427898209</v>
+        <v>1.190331952772455</v>
       </c>
       <c r="E115">
-        <v>1.080176475688172</v>
+        <v>1.078721097218043</v>
       </c>
       <c r="F115">
         <v>1.066410035322148</v>
@@ -3574,16 +3574,16 @@
         <v>44371</v>
       </c>
       <c r="B116">
+        <v>0.9544774148102492</v>
+      </c>
+      <c r="C116">
         <v>1.089975308641975</v>
       </c>
-      <c r="C116">
-        <v>0.9544774148102492</v>
-      </c>
       <c r="D116">
-        <v>1.175306314797361</v>
+        <v>1.175248810038944</v>
       </c>
       <c r="E116">
-        <v>1.073420235708783</v>
+        <v>1.072046280200188</v>
       </c>
       <c r="F116">
         <v>1.060900471328436</v>
@@ -3597,16 +3597,16 @@
         <v>44372</v>
       </c>
       <c r="B117">
+        <v>0.9716767925802002</v>
+      </c>
+      <c r="C117">
         <v>1.117333333333333</v>
       </c>
-      <c r="C117">
-        <v>0.9716767925802002</v>
-      </c>
       <c r="D117">
-        <v>1.193213949104618</v>
+        <v>1.193175496074674</v>
       </c>
       <c r="E117">
-        <v>1.094307278089323</v>
+        <v>1.092838023181911</v>
       </c>
       <c r="F117">
         <v>1.070094595507224</v>
@@ -3620,22 +3620,229 @@
         <v>44375</v>
       </c>
       <c r="B118">
-        <v>1.117333333333333</v>
+        <v>0.9862052772152271</v>
       </c>
       <c r="C118">
-        <v>0.9716767925802002</v>
+        <v>1.108444444444445</v>
       </c>
       <c r="D118">
-        <v>1.193213949104618</v>
+        <v>1.222414539160537</v>
       </c>
       <c r="E118">
-        <v>1.094307278089323</v>
+        <v>1.104493258842821</v>
       </c>
       <c r="F118">
-        <v>1.072467131869875</v>
+        <v>1.072467728686956</v>
       </c>
       <c r="G118">
-        <v>1.007765908249205</v>
+        <v>1.007765831492778</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7">
+      <c r="A119" s="2">
+        <v>44376</v>
+      </c>
+      <c r="B119">
+        <v>0.9725573068005049</v>
+      </c>
+      <c r="C119">
+        <v>1.093728395061728</v>
+      </c>
+      <c r="D119">
+        <v>1.226185324843914</v>
+      </c>
+      <c r="E119">
+        <v>1.096241011881034</v>
+      </c>
+      <c r="F119">
+        <v>1.062557424011836</v>
+      </c>
+      <c r="G119">
+        <v>0.9960182603539622</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7">
+      <c r="A120" s="2">
+        <v>44377</v>
+      </c>
+      <c r="B120">
+        <v>0.9734378210208096</v>
+      </c>
+      <c r="C120">
+        <v>1.111901234567901</v>
+      </c>
+      <c r="D120">
+        <v>1.254435309389875</v>
+      </c>
+      <c r="E120">
+        <v>1.111859918653141</v>
+      </c>
+      <c r="F120">
+        <v>1.069273186736212</v>
+      </c>
+      <c r="G120">
+        <v>1.002446611107806</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7">
+      <c r="A121" s="2">
+        <v>44378</v>
+      </c>
+      <c r="B121">
+        <v>0.9803645328872062</v>
+      </c>
+      <c r="C121">
+        <v>1.092049382716049</v>
+      </c>
+      <c r="D121">
+        <v>1.241268467577425</v>
+      </c>
+      <c r="E121">
+        <v>1.103318831778497</v>
+      </c>
+      <c r="F121">
+        <v>1.054900889100393</v>
+      </c>
+      <c r="G121">
+        <v>1.003525038905914</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7">
+      <c r="A122" s="2">
+        <v>44379</v>
+      </c>
+      <c r="B122">
+        <v>0.9532153444278125</v>
+      </c>
+      <c r="C122">
+        <v>1.105679012345679</v>
+      </c>
+      <c r="D122">
+        <v>1.235581380972986</v>
+      </c>
+      <c r="E122">
+        <v>1.096709146900616</v>
+      </c>
+      <c r="F122">
+        <v>1.045694200351494</v>
+      </c>
+      <c r="G122">
+        <v>0.975021539772302</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7">
+      <c r="A123" s="2">
+        <v>44382</v>
+      </c>
+      <c r="B123">
+        <v>0.9479322591059846</v>
+      </c>
+      <c r="C123">
+        <v>1.155950617283951</v>
+      </c>
+      <c r="D123">
+        <v>1.263893181677691</v>
+      </c>
+      <c r="E123">
+        <v>1.120845421753377</v>
+      </c>
+      <c r="F123">
+        <v>1.054011945765033</v>
+      </c>
+      <c r="G123">
+        <v>0.9759176710564946</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7">
+      <c r="A124" s="2">
+        <v>44383</v>
+      </c>
+      <c r="B124">
+        <v>0.9433829356344106</v>
+      </c>
+      <c r="C124">
+        <v>1.167012345679012</v>
+      </c>
+      <c r="D124">
+        <v>1.263893181677691</v>
+      </c>
+      <c r="E124">
+        <v>1.122949022143412</v>
+      </c>
+      <c r="F124">
+        <v>1.053774789504186</v>
+      </c>
+      <c r="G124">
+        <v>0.9754014840855144</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7">
+      <c r="A125" s="2">
+        <v>44384</v>
+      </c>
+      <c r="B125">
+        <v>0.9463473335094362</v>
+      </c>
+      <c r="C125">
+        <v>1.202469135802469</v>
+      </c>
+      <c r="D125">
+        <v>1.332694566359646</v>
+      </c>
+      <c r="E125">
+        <v>1.158362115106707</v>
+      </c>
+      <c r="F125">
+        <v>1.062354820318795</v>
+      </c>
+      <c r="G125">
+        <v>0.9864141124366519</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7">
+      <c r="A126" s="2">
+        <v>44385</v>
+      </c>
+      <c r="B126">
+        <v>0.9301458718558304</v>
+      </c>
+      <c r="C126">
+        <v>1.20720987654321</v>
+      </c>
+      <c r="D126">
+        <v>1.352475737157693</v>
+      </c>
+      <c r="E126">
+        <v>1.16094584895228</v>
+      </c>
+      <c r="F126">
+        <v>1.059923576002299</v>
+      </c>
+      <c r="G126">
+        <v>0.9763916419926737</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7">
+      <c r="A127" s="2">
+        <v>44386</v>
+      </c>
+      <c r="B127">
+        <v>0.9139150597282146</v>
+      </c>
+      <c r="C127">
+        <v>1.275259259259259</v>
+      </c>
+      <c r="D127">
+        <v>1.37225690795574</v>
+      </c>
+      <c r="E127">
+        <v>1.184411455488543</v>
+      </c>
+      <c r="F127">
+        <v>1.068701498796157</v>
+      </c>
+      <c r="G127">
+        <v>0.9727802521064841</v>
       </c>
     </row>
   </sheetData>
@@ -3747,18 +3954,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>7</v>
@@ -3790,131 +3997,119 @@
       <c r="L1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I2">
-        <v>0.34</v>
+        <v>0.33</v>
       </c>
       <c r="J2">
-        <v>39.53</v>
+        <v>8.680999755859375</v>
       </c>
       <c r="K2">
-        <v>3.11</v>
+        <v>37.81980133056641</v>
       </c>
       <c r="L2">
-        <v>16.99</v>
-      </c>
-      <c r="M2">
-        <v>24.35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>21.132</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I3">
-        <v>0.33</v>
+        <v>0.34</v>
       </c>
       <c r="J3">
-        <v>41.16</v>
+        <v>3.554100036621094</v>
       </c>
       <c r="K3">
-        <v>9.26</v>
+        <v>45.20259857177734</v>
       </c>
       <c r="L3">
-        <v>13.51</v>
-      </c>
-      <c r="M3">
-        <v>21.13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>24.3531</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I4">
         <v>0.33</v>
       </c>
       <c r="J4">
-        <v>141.9</v>
+        <v>10.94120025634766</v>
       </c>
       <c r="K4">
-        <v>9.640000000000001</v>
+        <v>161.9600982666016</v>
       </c>
       <c r="L4">
-        <v>12.41</v>
-      </c>
-      <c r="M4">
-        <v>31.98</v>
+        <v>31.9832</v>
       </c>
     </row>
   </sheetData>
@@ -3932,19 +4127,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -3952,10 +4147,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D2" t="s">
         <v>103</v>
@@ -3972,10 +4167,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D3" t="s">
         <v>104</v>
@@ -3992,10 +4187,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D4" t="s">
         <v>105</v>
@@ -4012,10 +4207,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D5" t="s">
         <v>106</v>
@@ -4032,10 +4227,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D6" t="s">
         <v>107</v>
@@ -4052,10 +4247,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D7" t="s">
         <v>108</v>
@@ -4072,10 +4267,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D8" t="s">
         <v>109</v>
@@ -4092,10 +4287,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D9" t="s">
         <v>110</v>
@@ -4112,16 +4307,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D10" t="s">
         <v>111</v>
       </c>
       <c r="E10" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F10" t="s">
         <v>150</v>
@@ -4132,16 +4327,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D11" t="s">
         <v>112</v>
       </c>
       <c r="E11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F11" t="s">
         <v>151</v>
@@ -4152,16 +4347,16 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D12" t="s">
         <v>113</v>
       </c>
       <c r="E12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F12" t="s">
         <v>152</v>
@@ -4172,16 +4367,16 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D13" t="s">
         <v>114</v>
       </c>
       <c r="E13" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F13" t="s">
         <v>153</v>
@@ -4192,16 +4387,16 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D14" t="s">
         <v>115</v>
       </c>
       <c r="E14" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F14" t="s">
         <v>154</v>
@@ -4212,16 +4407,16 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C15" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D15" t="s">
         <v>116</v>
       </c>
       <c r="E15" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F15" t="s">
         <v>155</v>
@@ -4232,16 +4427,16 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D16" t="s">
         <v>117</v>
       </c>
       <c r="E16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F16" t="s">
         <v>156</v>
@@ -4252,16 +4447,16 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C17" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D17" t="s">
         <v>118</v>
       </c>
       <c r="E17" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F17" t="s">
         <v>157</v>
@@ -4272,7 +4467,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C18" t="s">
         <v>99</v>
@@ -4281,7 +4476,7 @@
         <v>119</v>
       </c>
       <c r="E18" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="F18" t="s">
         <v>158</v>
@@ -4292,7 +4487,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C19" t="s">
         <v>100</v>
@@ -4312,7 +4507,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C20" t="s">
         <v>101</v>
@@ -4332,7 +4527,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C21" t="s">
         <v>102</v>
@@ -4381,7 +4576,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
         <v>165</v>
@@ -4395,7 +4590,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>166</v>
+        <v>138</v>
       </c>
       <c r="C4" t="s">
         <v>173</v>
@@ -4406,7 +4601,7 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C5" t="s">
         <v>174</v>
@@ -4414,10 +4609,10 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C6" t="s">
         <v>175</v>
@@ -4428,7 +4623,7 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C7" t="s">
         <v>176</v>
@@ -4439,7 +4634,7 @@
         <v>0</v>
       </c>
       <c r="B8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C8" t="s">
         <v>177</v>
@@ -4447,10 +4642,10 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>141</v>
+        <v>170</v>
       </c>
       <c r="C9" t="s">
         <v>178</v>
